--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Il13ra1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H2">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I2">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J2">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4939258450319</v>
+        <v>10.617228</v>
       </c>
       <c r="N2">
-        <v>10.4939258450319</v>
+        <v>31.851684</v>
       </c>
       <c r="O2">
-        <v>0.1512296536789624</v>
+        <v>0.1465076214340918</v>
       </c>
       <c r="P2">
-        <v>0.1512296536789624</v>
+        <v>0.1465076214340919</v>
       </c>
       <c r="Q2">
-        <v>17.67963255481863</v>
+        <v>1.869718624332</v>
       </c>
       <c r="R2">
-        <v>17.67963255481863</v>
+        <v>16.827467618988</v>
       </c>
       <c r="S2">
-        <v>0.06590883758236599</v>
+        <v>0.005760415795196557</v>
       </c>
       <c r="T2">
-        <v>0.06590883758236599</v>
+        <v>0.005760415795196558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H3">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I3">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J3">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.1846495358059</v>
+        <v>31.56914566666667</v>
       </c>
       <c r="N3">
-        <v>31.1846495358059</v>
+        <v>94.707437</v>
       </c>
       <c r="O3">
-        <v>0.4494070016353737</v>
+        <v>0.4356241047408703</v>
       </c>
       <c r="P3">
-        <v>0.4494070016353737</v>
+        <v>0.4356241047408703</v>
       </c>
       <c r="Q3">
-        <v>52.53831152283768</v>
+        <v>5.559400213239889</v>
       </c>
       <c r="R3">
-        <v>52.53831152283768</v>
+        <v>50.03460191915899</v>
       </c>
       <c r="S3">
-        <v>0.1958603511851087</v>
+        <v>0.01712795518181653</v>
       </c>
       <c r="T3">
-        <v>0.1958603511851087</v>
+        <v>0.01712795518181654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H4">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I4">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J4">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.88814849899736</v>
+        <v>7.961284333333334</v>
       </c>
       <c r="N4">
-        <v>7.88814849899736</v>
+        <v>23.883853</v>
       </c>
       <c r="O4">
-        <v>0.1136773771120518</v>
+        <v>0.1098581316363524</v>
       </c>
       <c r="P4">
-        <v>0.1136773771120518</v>
+        <v>0.1098581316363524</v>
       </c>
       <c r="Q4">
-        <v>13.28955140903166</v>
+        <v>1.402000747430111</v>
       </c>
       <c r="R4">
-        <v>13.28955140903166</v>
+        <v>12.618006726871</v>
       </c>
       <c r="S4">
-        <v>0.04954282181173739</v>
+        <v>0.004319423866924985</v>
       </c>
       <c r="T4">
-        <v>0.04954282181173739</v>
+        <v>0.004319423866924986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H5">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I5">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J5">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1288606200358</v>
+        <v>19.542853</v>
       </c>
       <c r="N5">
-        <v>17.1288606200358</v>
+        <v>58.628559</v>
       </c>
       <c r="O5">
-        <v>0.2468467661899469</v>
+        <v>0.2696727346409162</v>
       </c>
       <c r="P5">
-        <v>0.2468467661899469</v>
+        <v>0.2696727346409163</v>
       </c>
       <c r="Q5">
-        <v>28.85783321866185</v>
+        <v>3.441542013290333</v>
       </c>
       <c r="R5">
-        <v>28.85783321866185</v>
+        <v>30.973878119613</v>
       </c>
       <c r="S5">
-        <v>0.1075806432452918</v>
+        <v>0.01060304620983975</v>
       </c>
       <c r="T5">
-        <v>0.1075806432452918</v>
+        <v>0.01060304620983975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H6">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I6">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J6">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.69507791154283</v>
+        <v>2.778265</v>
       </c>
       <c r="N6">
-        <v>2.69507791154283</v>
+        <v>8.334795</v>
       </c>
       <c r="O6">
-        <v>0.03883920138366524</v>
+        <v>0.03833740754776926</v>
       </c>
       <c r="P6">
-        <v>0.03883920138366524</v>
+        <v>0.03833740754776926</v>
       </c>
       <c r="Q6">
-        <v>4.540530196832202</v>
+        <v>0.4892589491183333</v>
       </c>
       <c r="R6">
-        <v>4.540530196832202</v>
+        <v>4.403330542065</v>
       </c>
       <c r="S6">
-        <v>0.01692688274787009</v>
+        <v>0.001507357814039763</v>
       </c>
       <c r="T6">
-        <v>0.01692688274787009</v>
+        <v>0.001507357814039763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H7">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I7">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J7">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.4939258450319</v>
+        <v>10.617228</v>
       </c>
       <c r="N7">
-        <v>10.4939258450319</v>
+        <v>31.851684</v>
       </c>
       <c r="O7">
-        <v>0.1512296536789624</v>
+        <v>0.1465076214340918</v>
       </c>
       <c r="P7">
-        <v>0.1512296536789624</v>
+        <v>0.1465076214340919</v>
       </c>
       <c r="Q7">
-        <v>14.69823015314484</v>
+        <v>17.900016452472</v>
       </c>
       <c r="R7">
-        <v>14.69823015314484</v>
+        <v>161.100148072248</v>
       </c>
       <c r="S7">
-        <v>0.0547943098312767</v>
+        <v>0.05514815767743497</v>
       </c>
       <c r="T7">
-        <v>0.0547943098312767</v>
+        <v>0.05514815767743499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H8">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I8">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J8">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.1846495358059</v>
+        <v>31.56914566666667</v>
       </c>
       <c r="N8">
-        <v>31.1846495358059</v>
+        <v>94.707437</v>
       </c>
       <c r="O8">
-        <v>0.4494070016353737</v>
+        <v>0.4356241047408703</v>
       </c>
       <c r="P8">
-        <v>0.4494070016353737</v>
+        <v>0.4356241047408703</v>
       </c>
       <c r="Q8">
-        <v>43.67852059288526</v>
+        <v>53.22370649135711</v>
       </c>
       <c r="R8">
-        <v>43.67852059288526</v>
+        <v>479.013358422214</v>
       </c>
       <c r="S8">
-        <v>0.1628314678299057</v>
+        <v>0.1639769083763904</v>
       </c>
       <c r="T8">
-        <v>0.1628314678299057</v>
+        <v>0.1639769083763904</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H9">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I9">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J9">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.88814849899736</v>
+        <v>7.961284333333334</v>
       </c>
       <c r="N9">
-        <v>7.88814849899736</v>
+        <v>23.883853</v>
       </c>
       <c r="O9">
-        <v>0.1136773771120518</v>
+        <v>0.1098581316363524</v>
       </c>
       <c r="P9">
-        <v>0.1136773771120518</v>
+        <v>0.1098581316363524</v>
       </c>
       <c r="Q9">
-        <v>11.04846973693236</v>
+        <v>13.42225301646289</v>
       </c>
       <c r="R9">
-        <v>11.04846973693236</v>
+        <v>120.800277148166</v>
       </c>
       <c r="S9">
-        <v>0.04118817487678442</v>
+        <v>0.04135261706064516</v>
       </c>
       <c r="T9">
-        <v>0.04118817487678442</v>
+        <v>0.04135261706064517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H10">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I10">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J10">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.1288606200358</v>
+        <v>19.542853</v>
       </c>
       <c r="N10">
-        <v>17.1288606200358</v>
+        <v>58.628559</v>
       </c>
       <c r="O10">
-        <v>0.2468467661899469</v>
+        <v>0.2696727346409162</v>
       </c>
       <c r="P10">
-        <v>0.2468467661899469</v>
+        <v>0.2696727346409163</v>
       </c>
       <c r="Q10">
-        <v>23.99139648710374</v>
+        <v>32.94809061538867</v>
       </c>
       <c r="R10">
-        <v>23.99139648710374</v>
+        <v>296.532815538498</v>
       </c>
       <c r="S10">
-        <v>0.08943879628378895</v>
+        <v>0.101509766834708</v>
       </c>
       <c r="T10">
-        <v>0.08943879628378895</v>
+        <v>0.101509766834708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H11">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I11">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J11">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.69507791154283</v>
+        <v>2.778265</v>
       </c>
       <c r="N11">
-        <v>2.69507791154283</v>
+        <v>8.334795</v>
       </c>
       <c r="O11">
-        <v>0.03883920138366524</v>
+        <v>0.03833740754776926</v>
       </c>
       <c r="P11">
-        <v>0.03883920138366524</v>
+        <v>0.03833740754776926</v>
       </c>
       <c r="Q11">
-        <v>3.774838512249182</v>
+        <v>4.683989946276666</v>
       </c>
       <c r="R11">
-        <v>3.774838512249182</v>
+        <v>42.15590951649</v>
       </c>
       <c r="S11">
-        <v>0.01407242020624923</v>
+        <v>0.01443090383758349</v>
       </c>
       <c r="T11">
-        <v>0.01407242020624923</v>
+        <v>0.01443090383758349</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.780312733460885</v>
+        <v>1.400952</v>
       </c>
       <c r="H12">
-        <v>0.780312733460885</v>
+        <v>4.202856</v>
       </c>
       <c r="I12">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="J12">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4939258450319</v>
+        <v>10.617228</v>
       </c>
       <c r="N12">
-        <v>10.4939258450319</v>
+        <v>31.851684</v>
       </c>
       <c r="O12">
-        <v>0.1512296536789624</v>
+        <v>0.1465076214340918</v>
       </c>
       <c r="P12">
-        <v>0.1512296536789624</v>
+        <v>0.1465076214340919</v>
       </c>
       <c r="Q12">
-        <v>8.18854396087267</v>
+        <v>14.874226801056</v>
       </c>
       <c r="R12">
-        <v>8.18854396087267</v>
+        <v>133.868041209504</v>
       </c>
       <c r="S12">
-        <v>0.03052650626531968</v>
+        <v>0.04582600284935959</v>
       </c>
       <c r="T12">
-        <v>0.03052650626531968</v>
+        <v>0.0458260028493596</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.780312733460885</v>
+        <v>1.400952</v>
       </c>
       <c r="H13">
-        <v>0.780312733460885</v>
+        <v>4.202856</v>
       </c>
       <c r="I13">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="J13">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.1846495358059</v>
+        <v>31.56914566666667</v>
       </c>
       <c r="N13">
-        <v>31.1846495358059</v>
+        <v>94.707437</v>
       </c>
       <c r="O13">
-        <v>0.4494070016353737</v>
+        <v>0.4356241047408703</v>
       </c>
       <c r="P13">
-        <v>0.4494070016353737</v>
+        <v>0.4356241047408703</v>
       </c>
       <c r="Q13">
-        <v>24.33377912130442</v>
+        <v>44.226857760008</v>
       </c>
       <c r="R13">
-        <v>24.33377912130442</v>
+        <v>398.0417198400719</v>
       </c>
       <c r="S13">
-        <v>0.09071518262035932</v>
+        <v>0.136258518633349</v>
       </c>
       <c r="T13">
-        <v>0.09071518262035932</v>
+        <v>0.136258518633349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.780312733460885</v>
+        <v>1.400952</v>
       </c>
       <c r="H14">
-        <v>0.780312733460885</v>
+        <v>4.202856</v>
       </c>
       <c r="I14">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="J14">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.88814849899736</v>
+        <v>7.961284333333334</v>
       </c>
       <c r="N14">
-        <v>7.88814849899736</v>
+        <v>23.883853</v>
       </c>
       <c r="O14">
-        <v>0.1136773771120518</v>
+        <v>0.1098581316363524</v>
       </c>
       <c r="P14">
-        <v>0.1136773771120518</v>
+        <v>0.1098581316363524</v>
       </c>
       <c r="Q14">
-        <v>6.155222717198007</v>
+        <v>11.153377209352</v>
       </c>
       <c r="R14">
-        <v>6.155222717198007</v>
+        <v>100.380394884168</v>
       </c>
       <c r="S14">
-        <v>0.02294638042352995</v>
+        <v>0.0343624379681679</v>
       </c>
       <c r="T14">
-        <v>0.02294638042352995</v>
+        <v>0.0343624379681679</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.780312733460885</v>
+        <v>1.400952</v>
       </c>
       <c r="H15">
-        <v>0.780312733460885</v>
+        <v>4.202856</v>
       </c>
       <c r="I15">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="J15">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.1288606200358</v>
+        <v>19.542853</v>
       </c>
       <c r="N15">
-        <v>17.1288606200358</v>
+        <v>58.628559</v>
       </c>
       <c r="O15">
-        <v>0.2468467661899469</v>
+        <v>0.2696727346409162</v>
       </c>
       <c r="P15">
-        <v>0.2468467661899469</v>
+        <v>0.2696727346409163</v>
       </c>
       <c r="Q15">
-        <v>13.36586805149064</v>
+        <v>27.378598996056</v>
       </c>
       <c r="R15">
-        <v>13.36586805149064</v>
+        <v>246.407390964504</v>
       </c>
       <c r="S15">
-        <v>0.04982732666086616</v>
+        <v>0.08435072104155772</v>
       </c>
       <c r="T15">
-        <v>0.04982732666086616</v>
+        <v>0.08435072104155773</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.400952</v>
+      </c>
+      <c r="H16">
+        <v>4.202856</v>
+      </c>
+      <c r="I16">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="J16">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.778265</v>
+      </c>
+      <c r="N16">
+        <v>8.334795</v>
+      </c>
+      <c r="O16">
+        <v>0.03833740754776926</v>
+      </c>
+      <c r="P16">
+        <v>0.03833740754776926</v>
+      </c>
+      <c r="Q16">
+        <v>3.892215908279999</v>
+      </c>
+      <c r="R16">
+        <v>35.02994317452</v>
+      </c>
+      <c r="S16">
+        <v>0.01199152733710494</v>
+      </c>
+      <c r="T16">
+        <v>0.01199152733710494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.15349</v>
+      </c>
+      <c r="I17">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J17">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.617228</v>
+      </c>
+      <c r="N17">
+        <v>31.851684</v>
+      </c>
+      <c r="O17">
+        <v>0.1465076214340918</v>
+      </c>
+      <c r="P17">
+        <v>0.1465076214340919</v>
+      </c>
+      <c r="Q17">
+        <v>4.08228877524</v>
+      </c>
+      <c r="R17">
+        <v>36.74059897716</v>
+      </c>
+      <c r="S17">
+        <v>0.01257712280094959</v>
+      </c>
+      <c r="T17">
+        <v>0.01257712280094959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.15349</v>
+      </c>
+      <c r="I18">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J18">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>31.56914566666667</v>
+      </c>
+      <c r="N18">
+        <v>94.707437</v>
+      </c>
+      <c r="O18">
+        <v>0.4356241047408703</v>
+      </c>
+      <c r="P18">
+        <v>0.4356241047408703</v>
+      </c>
+      <c r="Q18">
+        <v>12.13823127834778</v>
+      </c>
+      <c r="R18">
+        <v>109.24408150513</v>
+      </c>
+      <c r="S18">
+        <v>0.03739667470367335</v>
+      </c>
+      <c r="T18">
+        <v>0.03739667470367335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.15349</v>
+      </c>
+      <c r="I19">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J19">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.961284333333334</v>
+      </c>
+      <c r="N19">
+        <v>23.883853</v>
+      </c>
+      <c r="O19">
+        <v>0.1098581316363524</v>
+      </c>
+      <c r="P19">
+        <v>0.1098581316363524</v>
+      </c>
+      <c r="Q19">
+        <v>3.061087288552223</v>
+      </c>
+      <c r="R19">
+        <v>27.54978559697</v>
+      </c>
+      <c r="S19">
+        <v>0.009430903312390904</v>
+      </c>
+      <c r="T19">
+        <v>0.009430903312390906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.15349</v>
+      </c>
+      <c r="I20">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J20">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.542853</v>
+      </c>
+      <c r="N20">
+        <v>58.628559</v>
+      </c>
+      <c r="O20">
+        <v>0.2696727346409162</v>
+      </c>
+      <c r="P20">
+        <v>0.2696727346409163</v>
+      </c>
+      <c r="Q20">
+        <v>7.514161835656667</v>
+      </c>
+      <c r="R20">
+        <v>67.62745652091</v>
+      </c>
+      <c r="S20">
+        <v>0.02315037993550729</v>
+      </c>
+      <c r="T20">
+        <v>0.02315037993550729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.15349</v>
+      </c>
+      <c r="I21">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J21">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.778265</v>
+      </c>
+      <c r="N21">
+        <v>8.334795</v>
+      </c>
+      <c r="O21">
+        <v>0.03833740754776926</v>
+      </c>
+      <c r="P21">
+        <v>0.03833740754776926</v>
+      </c>
+      <c r="Q21">
+        <v>1.068233631616667</v>
+      </c>
+      <c r="R21">
+        <v>9.61410268455</v>
+      </c>
+      <c r="S21">
+        <v>0.003291120815958762</v>
+      </c>
+      <c r="T21">
+        <v>0.003291120815958763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H22">
+        <v>2.494229</v>
+      </c>
+      <c r="I22">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J22">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.617228</v>
+      </c>
+      <c r="N22">
+        <v>31.851684</v>
+      </c>
+      <c r="O22">
+        <v>0.1465076214340918</v>
+      </c>
+      <c r="P22">
+        <v>0.1465076214340919</v>
+      </c>
+      <c r="Q22">
+        <v>8.827265992404</v>
+      </c>
+      <c r="R22">
+        <v>79.445393931636</v>
+      </c>
+      <c r="S22">
+        <v>0.02719592231115111</v>
+      </c>
+      <c r="T22">
+        <v>0.02719592231115112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H23">
+        <v>2.494229</v>
+      </c>
+      <c r="I23">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J23">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>31.56914566666667</v>
+      </c>
+      <c r="N23">
+        <v>94.707437</v>
+      </c>
+      <c r="O23">
+        <v>0.4356241047408703</v>
+      </c>
+      <c r="P23">
+        <v>0.4356241047408703</v>
+      </c>
+      <c r="Q23">
+        <v>26.24689287567478</v>
+      </c>
+      <c r="R23">
+        <v>236.222035881073</v>
+      </c>
+      <c r="S23">
+        <v>0.08086404784564102</v>
+      </c>
+      <c r="T23">
+        <v>0.08086404784564102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.780312733460885</v>
-      </c>
-      <c r="H16">
-        <v>0.780312733460885</v>
-      </c>
-      <c r="I16">
-        <v>0.201855294399621</v>
-      </c>
-      <c r="J16">
-        <v>0.201855294399621</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.69507791154283</v>
-      </c>
-      <c r="N16">
-        <v>2.69507791154283</v>
-      </c>
-      <c r="O16">
-        <v>0.03883920138366524</v>
-      </c>
-      <c r="P16">
-        <v>0.03883920138366524</v>
-      </c>
-      <c r="Q16">
-        <v>2.103003612046039</v>
-      </c>
-      <c r="R16">
-        <v>2.103003612046039</v>
-      </c>
-      <c r="S16">
-        <v>0.007839898429545916</v>
-      </c>
-      <c r="T16">
-        <v>0.007839898429545916</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H24">
+        <v>2.494229</v>
+      </c>
+      <c r="I24">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J24">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.961284333333334</v>
+      </c>
+      <c r="N24">
+        <v>23.883853</v>
+      </c>
+      <c r="O24">
+        <v>0.1098581316363524</v>
+      </c>
+      <c r="P24">
+        <v>0.1098581316363524</v>
+      </c>
+      <c r="Q24">
+        <v>6.619088753815222</v>
+      </c>
+      <c r="R24">
+        <v>59.571798784337</v>
+      </c>
+      <c r="S24">
+        <v>0.02039274942822343</v>
+      </c>
+      <c r="T24">
+        <v>0.02039274942822344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H25">
+        <v>2.494229</v>
+      </c>
+      <c r="I25">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J25">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.542853</v>
+      </c>
+      <c r="N25">
+        <v>58.628559</v>
+      </c>
+      <c r="O25">
+        <v>0.2696727346409162</v>
+      </c>
+      <c r="P25">
+        <v>0.2696727346409163</v>
+      </c>
+      <c r="Q25">
+        <v>16.24811689844567</v>
+      </c>
+      <c r="R25">
+        <v>146.233052086011</v>
+      </c>
+      <c r="S25">
+        <v>0.0500588206193035</v>
+      </c>
+      <c r="T25">
+        <v>0.05005882061930351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.494229</v>
+      </c>
+      <c r="I26">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J26">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.778265</v>
+      </c>
+      <c r="N26">
+        <v>8.334795</v>
+      </c>
+      <c r="O26">
+        <v>0.03833740754776926</v>
+      </c>
+      <c r="P26">
+        <v>0.03833740754776926</v>
+      </c>
+      <c r="Q26">
+        <v>2.309876377561666</v>
+      </c>
+      <c r="R26">
+        <v>20.788887398055</v>
+      </c>
+      <c r="S26">
+        <v>0.007116497743082303</v>
+      </c>
+      <c r="T26">
+        <v>0.007116497743082305</v>
       </c>
     </row>
   </sheetData>
